--- a/biology/Zoologie/Dendraster_excentricus/Dendraster_excentricus.xlsx
+++ b/biology/Zoologie/Dendraster_excentricus/Dendraster_excentricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendraster excentricus est une espèce d'oursins plats (clypéastéroïdes). Les clypéastéroïdes sont appelés en anglais sand dollar (dollars des sables) du fait de leur ressemblance avec une pièce (plats et ronds).
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins plats d'allure caractéristique, de forme discoïdale et couverts de petites radioles formant un tapis velouté de couleur généralement violacée.
 Ils doivent leur nom au fait que la « fleur » ambulacraire qui orne leur face aborale ne rayonne pas à partir du centre de l'animal.
-Ils peuvent mesurer jusqu'à 8-12 cm de diamètre[2].
+Ils peuvent mesurer jusqu'à 8-12 cm de diamètre.
 			Spécimens vivants en aquarium
 			Spécimens de muséum (séchés)
 			Test trouvé in situ
@@ -549,9 +563,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oursin affectionne les fonds sablo-vaseux calmes des côtes pacifiques de l'Amérique du Nord, de la basse-Californie à l'Alaska[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oursin affectionne les fonds sablo-vaseux calmes des côtes pacifiques de l'Amérique du Nord, de la basse-Californie à l'Alaska.
 </t>
         </is>
       </c>
@@ -580,11 +596,13 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oursin vit enfoui dans le sédiment pendant la journée, à l'abri des prédateurs. Il en émerge la nuit pour prendre une position érigée caractéristique, qui lui permet de filtrer l'eau avec ses radioles et ses podia pour se nourrir des particules en suspension[3].
-Des cas de reproduction asexuée ont été observés chez des larves de Dendraster excentricus, et pourraient être possibles chez d'autres espèces : dans des eaux riches en nutriments mais aussi en prédateurs, les larves peuvent se cloner par division, doublant ainsi leurs chances de survie[4].
-Ces oursins semblent ingérer volontairement des minéraux métalliques (comme des grains de magnétite) pour augmenter leur poids et ainsi réduire le risque d'être emportés par le courant[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oursin vit enfoui dans le sédiment pendant la journée, à l'abri des prédateurs. Il en émerge la nuit pour prendre une position érigée caractéristique, qui lui permet de filtrer l'eau avec ses radioles et ses podia pour se nourrir des particules en suspension.
+Des cas de reproduction asexuée ont été observés chez des larves de Dendraster excentricus, et pourraient être possibles chez d'autres espèces : dans des eaux riches en nutriments mais aussi en prédateurs, les larves peuvent se cloner par division, doublant ainsi leurs chances de survie.
+Ces oursins semblent ingérer volontairement des minéraux métalliques (comme des grains de magnétite) pour augmenter leur poids et ainsi réduire le risque d'être emportés par le courant.
 </t>
         </is>
       </c>
